--- a/medicine/Enfance/Alice_au_Camp_des_biches/Alice_au_Camp_des_biches.xlsx
+++ b/medicine/Enfance/Alice_au_Camp_des_biches/Alice_au_Camp_des_biches.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Alice au camp des biches (titre original : The Bungalow Mystery, littéralement : Le Mystère du bungalow) est le troisième[1] roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur de ce roman est Mildred Wirt Benson. 
+Alice au camp des biches (titre original : The Bungalow Mystery, littéralement : Le Mystère du bungalow) est le troisième roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur de ce roman est Mildred Wirt Benson. 
 Aux États-Unis, le roman a été publié pour la première fois le 29 avril 1930 par Grosset &amp; Dunlap (New York). En France, il est paru la première fois en 1957 chez Hachette Jeunesse dans la collection Bibliothèque verte sous le no 290. Ce roman n'a pas été réédité en France depuis 1985.
 Dans ce roman, Alice Roy fait la connaissance de Laura, une orpheline de son âge sous l'emprise d'un tuteur cruel au comportement très curieux. Mais le tuteur est-il bien celui qu'il prétend être ? C'est ce qu'Alice va tenter de découvrir.
 </t>
@@ -514,7 +526,9 @@
           <t>Résumé détaillé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur les éditions cartonnées non abrégées parues de 1957 à 1973 en langue française.
 En vacances d'été au Camp des biches, Alice et son amie Hélène se promènent en canot à moteur sur un vaste lac, lorsque le temps passe subitement du beau à la tempête. Une pluie diluvienne s'abat sur les eaux du lac, noyant le moteur du canot. De grandes vagues font chavirer l’embarcation et les deux passagères tombent à l'eau, loin de leur embarcation. Une jeune fille en barque entend leurs appels au secours et se porte à leur aide. Les trois jeunes filles réussissent à regagner la rive, saines et sauves. Alice et Hélène remercient chaleureusement leur sauveteur : elle se nomme Laura Pinkerton, et passe elle aussi les vacances au bord du lac en compagnie de son tuteur, Jacob Ascott. Laura fait part à Alice du comportement très autoritaire de son tuteur ; elle souhaite avoir l'avis d'Alice et lui présente Jacob Ascott. L'homme, dur et méprisant, déplaît fortement à Alice. 
@@ -550,15 +564,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Personnages récurrents
-Alice Roy : seize ans[2], orpheline de mère, fille de James Roy.
-James Roy : avoué[3] de renom, père d'Alice Roy, veuf.
-Sarah : la fidèle gouvernante des Roy, qui a élevé Alice à la mort de sa mère.
-Personnages spécifiques à ce roman
-Hélène Carvin (Helen Corning en VO) : la meilleure amie d'Alice.
-Laura Pinkerton (Laura Pendleton en VO) : jeune orpheline.
-Jacob Ascott (Jacob Aborn en VO) : le tuteur de Laura.
-Jerry Brand : malfaiteur.</t>
+          <t>Personnages récurrents</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alice Roy : seize ans, orpheline de mère, fille de James Roy.
+James Roy : avoué de renom, père d'Alice Roy, veuf.
+Sarah : la fidèle gouvernante des Roy, qui a élevé Alice à la mort de sa mère.</t>
         </is>
       </c>
     </row>
@@ -583,48 +597,91 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnages spécifiques à ce roman</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hélène Carvin (Helen Corning en VO) : la meilleure amie d'Alice.
+Laura Pinkerton (Laura Pendleton en VO) : jeune orpheline.
+Jacob Ascott (Jacob Aborn en VO) : le tuteur de Laura.
+Jerry Brand : malfaiteur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alice_au_Camp_des_biches</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_au_Camp_des_biches</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Note : Toutes les éditions ont paru aux éditions Hachette Jeunesse.
 1957 : Alice au Camp des biches — coll. « Bibliothèque verte » no 290, cartonné, texte original. Illustré par Albert Chazelle. Traduction de Hélène Commin. 25 chapitres. 252 p.  ;
 1967 : Alice au Camp des biches — coll. « Idéal-Bibliothèque » no 327, cartonné avec jaquette, texte légèrement abrégé. Nouvelle couverture et illustrations d'Albert Chazelle. Traduction de Hélène Commin. 25 chapitres. 186 p.  ;
 1970 : Alice au Camp des biches — coll. « Idéal-Bibliothèque » no 327, cartonné sans jaquette (couverture plastifiée), texte abrégé. Illustrations d'Albert Chazelle. Traduction de Hélène Commin. 25 chapitres. 186 p.  ;
-1973 : Alice au Camp des biches — coll. « Bibliothèque verte », cartonné, texte original. Nouvelle couverture d'Albert Chazelle[4]. Traduction de Hélène Commin. 25 chapitres. 252 p.  ;
+1973 : Alice au Camp des biches — coll. « Bibliothèque verte », cartonné, texte original. Nouvelle couverture d'Albert Chazelle. Traduction de Hélène Commin. 25 chapitres. 252 p.  ;
 1977 : Alice au Camp des biches — coll. « Bibliothèque verte », cartonné, texte raccourci. Nouvelle couverture de Jean-Louis Mercier. Traduction d'Anne Joba. 25 chapitres. 180 p.  ;
 1978 : Alice au Camp des biches — Éditions France loisirs, cartonné, texte original. Couverture de C. Leborne (pas d'illustrations intérieures) ;
 1983 : Alice au Camp des biches — coll. « Bibliothèque verte », cartonné (série "striée"), texte raccourci. Nouvelle couverture de Joseph Sheldon, illustrations intérieures de Jean-Louis Mercier. Traduction d'Anne Joba. 25 chapitres. 180 p.  ;
-1984 : Alice au Camp des biches — coll. « Bibliothèque verte », cartonné (série "striée")[5], texte raccourci. Nouvelle couverture de Jean Sidobre, illustrations intérieures de Jean-Louis Mercier. Traduction d'Anne Joba. 25 chapitres. 180 p. </t>
+1984 : Alice au Camp des biches — coll. « Bibliothèque verte », cartonné (série "striée"), texte raccourci. Nouvelle couverture de Jean Sidobre, illustrations intérieures de Jean-Louis Mercier. Traduction d'Anne Joba. 25 chapitres. 180 p. </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Alice_au_Camp_des_biches</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alice_au_Camp_des_biches</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Une partie de l'intrigue du roman a été utilisée dans le jeu vidéo Les Enquêtes de Nancy Drew : Le Mystère de l'horloge, développé par Her Interactive.[réf. nécessaire]
 </t>
